--- a/output/amref.xlsx
+++ b/output/amref.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -552,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +570,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,10 +679,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -772,15 +790,24 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>701287</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -879,15 +906,24 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>1062858</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -986,15 +1022,24 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>501208</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1093,15 +1138,24 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>300005</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1200,15 +1254,24 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>402583</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1307,15 +1370,24 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>913483</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1414,15 +1486,24 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>383181</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1521,15 +1602,24 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>339693</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1628,15 +1718,24 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>542763</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1735,15 +1834,24 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1842,15 +1950,24 @@
         <v>1</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>784254.5</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1949,15 +2066,24 @@
         <v>1</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>189815.5</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2056,15 +2182,24 @@
         <v>1</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>214640.5</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2163,15 +2298,24 @@
         <v>1</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>589727</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2270,15 +2414,24 @@
         <v>1</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>196702</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2377,15 +2530,24 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>784254.5</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2484,15 +2646,24 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>189815.5</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2591,15 +2762,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>214640.5</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2698,15 +2878,24 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>589727</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2805,15 +2994,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>196702</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2912,15 +3110,24 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>357961</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3019,15 +3226,24 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>140055</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3126,15 +3342,24 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>72000</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3233,15 +3458,24 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>357961</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3340,15 +3574,24 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>140055</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3447,15 +3690,24 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>72000</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3554,15 +3806,24 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>338298</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3661,15 +3922,24 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>163394</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3768,15 +4038,24 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>198736</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3875,9 +4154,18 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>18405</v>
       </c>
     </row>

--- a/output/amref.xlsx
+++ b/output/amref.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -561,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,7 +576,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,10 +694,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -790,24 +802,30 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI2">
+        <v>0.4083337256299723</v>
+      </c>
+      <c r="AJ2">
         <v>1979</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>701287</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -906,24 +924,30 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI3">
+        <v>0.4083337256299723</v>
+      </c>
+      <c r="AJ3">
         <v>1979</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>1062858</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1022,24 +1046,30 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI4">
+        <v>0.4083337256299723</v>
+      </c>
+      <c r="AJ4">
         <v>1979</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>501208</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1138,24 +1168,30 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI5">
+        <v>0.4083337256299723</v>
+      </c>
+      <c r="AJ5">
         <v>1979</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>300005</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1254,24 +1290,30 @@
         <v>0.05677381008423329</v>
       </c>
       <c r="AI6">
+        <v>0.4083337256299723</v>
+      </c>
+      <c r="AJ6">
         <v>1979</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>402583</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1370,24 +1412,30 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI7">
+        <v>0.3073796259226471</v>
+      </c>
+      <c r="AJ7">
         <v>1979</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>913483</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1486,24 +1534,30 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI8">
+        <v>0.3073796259226471</v>
+      </c>
+      <c r="AJ8">
         <v>1979</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>383181</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1602,24 +1656,30 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI9">
+        <v>0.3073796259226471</v>
+      </c>
+      <c r="AJ9">
         <v>1979</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>339693</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1718,24 +1778,30 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI10">
+        <v>0.3073796259226471</v>
+      </c>
+      <c r="AJ10">
         <v>1979</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>542763</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1834,24 +1900,30 @@
         <v>0.1904261797759145</v>
       </c>
       <c r="AI11">
+        <v>0.3073796259226471</v>
+      </c>
+      <c r="AJ11">
         <v>1979</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>1360</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1950,24 +2022,30 @@
         <v>1</v>
       </c>
       <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
         <v>1979</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>784254.5</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2066,24 +2144,30 @@
         <v>1</v>
       </c>
       <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
         <v>1979</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>189815.5</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2182,24 +2266,30 @@
         <v>1</v>
       </c>
       <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
         <v>1979</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>214640.5</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2298,24 +2388,30 @@
         <v>1</v>
       </c>
       <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
         <v>1979</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>589727</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2414,24 +2510,30 @@
         <v>1</v>
       </c>
       <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
         <v>1979</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>196702</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2530,24 +2632,30 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
         <v>1979</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>784254.5</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2646,24 +2754,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>1979</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>189815.5</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2762,24 +2876,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
         <v>1979</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>214640.5</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2878,24 +2998,30 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
         <v>1979</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>589727</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2994,24 +3120,30 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
         <v>1979</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>196702</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3110,24 +3242,30 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI22">
+        <v>0.3773640256531565</v>
+      </c>
+      <c r="AJ22">
         <v>1979</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>357961</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3226,24 +3364,30 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI23">
+        <v>0.3773640256531565</v>
+      </c>
+      <c r="AJ23">
         <v>1979</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>140055</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3342,24 +3486,30 @@
         <v>0.3104854095757285</v>
       </c>
       <c r="AI24">
+        <v>0.3773640256531565</v>
+      </c>
+      <c r="AJ24">
         <v>1979</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>72000</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3458,24 +3608,30 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI25">
+        <v>0.2799719838333143</v>
+      </c>
+      <c r="AJ25">
         <v>1979</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>357961</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3574,24 +3730,30 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI26">
+        <v>0.2799719838333143</v>
+      </c>
+      <c r="AJ26">
         <v>1979</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>140055</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3690,24 +3852,30 @@
         <v>0.5045953693196765</v>
       </c>
       <c r="AI27">
+        <v>0.2799719838333143</v>
+      </c>
+      <c r="AJ27">
         <v>1979</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>72000</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3806,24 +3974,30 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI28">
+        <v>0.3536561986599722</v>
+      </c>
+      <c r="AJ28">
         <v>1979</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>338298</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3922,24 +4096,30 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI29">
+        <v>0.3536561986599722</v>
+      </c>
+      <c r="AJ29">
         <v>1979</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>163394</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4038,24 +4218,30 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI30">
+        <v>0.3536561986599722</v>
+      </c>
+      <c r="AJ30">
         <v>1979</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>198736</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4154,18 +4340,24 @@
         <v>0.4404388942950536</v>
       </c>
       <c r="AI31">
+        <v>0.3536561986599722</v>
+      </c>
+      <c r="AJ31">
         <v>1979</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>18405</v>
       </c>
     </row>

--- a/output/amref.xlsx
+++ b/output/amref.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>720</v>
+        <v>743.403784726004</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D3">
         <v>620371</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>960</v>
+        <v>951.6879611168786</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1260</v>
+        <v>1401.47747416771</v>
       </c>
       <c r="D5">
         <v>597745</v>
@@ -1197,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>560</v>
+        <v>815.8736791314819</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>770</v>
+        <v>777.227218443918</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>990</v>
+        <v>982.980837581714</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1480</v>
+        <v>1591.56825353313</v>
       </c>
       <c r="D10">
         <v>559709</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>630</v>
+        <v>864.5379000312432</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D12">
         <v>418420</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1050</v>
+        <v>1000.829216794104</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>810</v>
+        <v>788.439151581443</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1710</v>
+        <v>1745.10167474004</v>
       </c>
       <c r="D15">
         <v>559709</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1330</v>
+        <v>1291.622214254295</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D17">
         <v>269988</v>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1130</v>
+        <v>1032.277326842402</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2783,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>890</v>
+        <v>817.1226340535979</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1210</v>
+        <v>1778.60982580794</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1360</v>
+        <v>1291.415042301529</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>740</v>
+        <v>741.0381351906716</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1240</v>
+        <v>1060.095015975378</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D25">
         <v>300000</v>
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>750</v>
+        <v>750.4706590411453</v>
       </c>
       <c r="D26">
         <v>245110</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1290</v>
+        <v>1093.134170274031</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D28">
         <v>378912</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>770</v>
+        <v>809.9545825255682</v>
       </c>
       <c r="D29">
         <v>245110</v>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1360</v>
+        <v>1129.713195979213</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>1270</v>
+        <v>1431.756130822538</v>
       </c>
       <c r="D31">
         <v>0</v>

--- a/output/amref.xlsx
+++ b/output/amref.xlsx
@@ -834,7 +834,7 @@
         <v>341.5541149051794</v>
       </c>
       <c r="D3">
-        <v>620371</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>1745.10167474004</v>
       </c>
       <c r="D15">
-        <v>559709</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>542763</v>
@@ -2545,7 +2545,7 @@
         <v>269988</v>
       </c>
       <c r="E17">
-        <v>784254.5</v>
+        <v>383181</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>189815.5</v>
+        <v>339693</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>214640.5</v>
+        <v>913483</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>589727</v>
+        <v>542763</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>196702</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>64</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>482.6390663355013</v>
@@ -3521,7 +3521,7 @@
         <v>300000</v>
       </c>
       <c r="E25">
-        <v>357961</v>
+        <v>784254.5</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>245110</v>
       </c>
       <c r="E26">
-        <v>140055</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>72000</v>
+        <v>189815.5</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -4006,7 +4006,7 @@
         <v>809.9545825255682</v>
       </c>
       <c r="D29">
-        <v>245110</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>140055</v>
